--- a/data/AND_NOR.xlsx
+++ b/data/AND_NOR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\SI_2023_2\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alejandro.puerta\Documents\Clases\SI\SI_2023_2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A678CD6-70AE-4D5B-B83F-F7CA935857BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A86240C-2845-4084-B717-4AED5452475E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3708" yWindow="2412" windowWidth="17280" windowHeight="8964" xr2:uid="{30D1D224-0543-48E0-BCB8-ACDE83109EF0}"/>
+    <workbookView xWindow="5265" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{30D1D224-0543-48E0-BCB8-ACDE83109EF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -414,9 +414,9 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -436,7 +436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -456,7 +456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -496,7 +496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -516,7 +516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -536,7 +536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -616,7 +616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -696,7 +696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1</v>
       </c>

--- a/data/AND_NOR.xlsx
+++ b/data/AND_NOR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alejandro.puerta\Documents\Clases\SI\SI_2023_2\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital\SI_trabajos\SI_2023_2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A86240C-2845-4084-B717-4AED5452475E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B76B740-FEFE-4978-A186-75A6CE0CC780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5265" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{30D1D224-0543-48E0-BCB8-ACDE83109EF0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CE0EA505-F6FF-48D6-AA27-0D8A7E4CC501}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -38,29 +38,29 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>X1</t>
+    <t>x1</t>
   </si>
   <si>
-    <t>X2</t>
+    <t>x2</t>
   </si>
   <si>
-    <t>X3</t>
+    <t>x3</t>
   </si>
   <si>
-    <t>X4</t>
+    <t>x4</t>
   </si>
   <si>
-    <t>Y1</t>
+    <t>y1</t>
   </si>
   <si>
-    <t>Y2</t>
+    <t>y2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,16 +68,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -85,21 +97,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{354D0014-C189-4B5D-BAD1-6947A1AAFD15}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -407,36 +435,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA11F8E1-9838-46E1-BDA2-F84226768992}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2699C30A-0D87-4F99-B7EC-EA852A852838}">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -456,7 +484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -473,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -493,10 +521,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -513,10 +541,10 @@
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -533,10 +561,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -556,7 +584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -576,7 +604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -596,7 +624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -613,10 +641,10 @@
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -636,7 +664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -656,7 +684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -676,7 +704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -693,10 +721,10 @@
         <v>1</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -716,7 +744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -736,7 +764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -757,6 +785,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>